--- a/RegressionTests/NeuralNetClassifier_Unit_Test_11/expected_aptrans_anon.602447PRSA_-_Exec_0720.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_11/expected_aptrans_anon.602447PRSA_-_Exec_0720.xlsx
@@ -10,7 +10,6 @@
     <sheet name="~Tab Sheet" sheetId="1" r:id="rId2"/>
     <sheet name="sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="#Tab Sheet" sheetId="3" r:id="rId4"/>
-    <sheet name="$Tab Sheet" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913"/>
@@ -19,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
   <si>
     <t>HERMITAGE MEDICAL CLINIC</t>
   </si>
@@ -129,6 +128,13 @@
     <t>AVC</t>
   </si>
   <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Forename [Kenmare] does not match Payroll member's (refno=0790811) forename [TOM] or its initial
+Surname [O'Ballymagauran] does not match Payroll member's (refno=0790811) surname  [GREENAN]  (forename TOM)</t>
+  </si>
+  <si>
     <t>1454</t>
   </si>
   <si>
@@ -138,6 +144,13 @@
     <t>O'Ballymagauran</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Member (Payroll=1694) status is NL so name is not validated
+Member status is inactive so paypoint is not returned</t>
+  </si>
+  <si>
     <t>1694</t>
   </si>
   <si>
@@ -147,6 +160,10 @@
     <t>McAnnamoe</t>
   </si>
   <si>
+    <t>Forename [Ballymore] does not match Payroll member's (refno=0904468) forename [GEAROID] or its initial
+Surname [Churchtown] does not match Payroll member's (refno=0904468) surname  [NORRIS]  (forename GEAROID)</t>
+  </si>
+  <si>
     <t>1969</t>
   </si>
   <si>
@@ -156,6 +173,10 @@
     <t>Churchtown</t>
   </si>
   <si>
+    <t>Forename [Tullaghan] does not match Payroll member's (refno=0938107) forename [GEAROID] or its initial
+Surname [Redhills] does not match Payroll member's (refno=0938107) surname  [NORRIS]  (forename GEAROID)</t>
+  </si>
+  <si>
     <t>2228</t>
   </si>
   <si>
@@ -174,19 +195,118 @@
     <t>2904.45</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1160256</t>
+  </si>
+  <si>
+    <t>244701</t>
+  </si>
+  <si>
+    <t>Direct Debit</t>
+  </si>
+  <si>
+    <t>29/04/2021</t>
+  </si>
+  <si>
+    <t>100,828.61</t>
+  </si>
+  <si>
+    <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>ILIM Apr 2021</t>
+  </si>
+  <si>
+    <t>1160252</t>
+  </si>
+  <si>
+    <t>9,957.35</t>
+  </si>
+  <si>
+    <t>1158226</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>09/04/2021</t>
+  </si>
+  <si>
+    <t>7,000.00</t>
+  </si>
+  <si>
+    <t>ILIM SPAV - A Billingham 0624761</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>1088112</t>
+  </si>
+  <si>
+    <t>244702</t>
+  </si>
+  <si>
+    <t>01/01/2020</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>19,024.32</t>
+  </si>
+  <si>
+    <t>2019 Charges</t>
+  </si>
+  <si>
+    <t>1033048</t>
+  </si>
+  <si>
+    <t>01/01/2019</t>
+  </si>
+  <si>
+    <t>13,504.40</t>
+  </si>
+  <si>
+    <t>yearly fees 2019</t>
+  </si>
+  <si>
+    <t>970204</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>10,930.40</t>
+  </si>
+  <si>
+    <t>invoiced fees 01/01/2018- 31/12/2018</t>
   </si>
 </sst>
 </file>
@@ -198,7 +318,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -225,8 +345,16 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -237,25 +365,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -314,7 +437,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -327,18 +450,17 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,7 +1078,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -964,11 +1086,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="3"/>
+    <col min="1" max="1" width="107" style="3"/>
     <col min="2" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -987,17 +1109,22 @@
       <c r="F1" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="6"/>
+      <c r="G1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3">
         <v>0.0</v>
@@ -1005,17 +1132,22 @@
       <c r="F2" s="3">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="6"/>
+      <c r="G2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3">
         <v>953.7</v>
@@ -1024,16 +1156,18 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3">
         <v>1300.5</v>
@@ -1041,23 +1175,31 @@
       <c r="F4" s="3">
         <v>650.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="6"/>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E5" s="3">
         <v>0.0</v>
       </c>
       <c r="F5" s="3">
         <v>0.0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1068,7 +1210,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1076,7 +1218,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="3"/>
+    <col min="1" max="1" width="17.75" style="3"/>
+    <col min="2" max="2" width="14.125" style="3"/>
+    <col min="3" max="3" width="8.25" style="3"/>
+    <col min="4" max="4" width="15.75" style="3"/>
+    <col min="5" max="5" width="13.25" style="3"/>
+    <col min="6" max="6" width="12.625" style="3"/>
+    <col min="7" max="7" width="15.75" style="3"/>
+    <col min="8" max="8" width="10.5" style="3"/>
+    <col min="9" max="9" width="31.5" style="3"/>
+    <col min="10" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
@@ -1097,12 +1248,12 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
@@ -1112,49 +1263,210 @@
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_11/expected_aptrans_anon.602447PRSA_-_Exec_0720.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_11/expected_aptrans_anon.602447PRSA_-_Exec_0720.xlsx
@@ -10,6 +10,7 @@
     <sheet name="~Tab Sheet" sheetId="1" r:id="rId2"/>
     <sheet name="sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="#Tab Sheet" sheetId="3" r:id="rId4"/>
+    <sheet name="$Tab Sheet" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>HERMITAGE MEDICAL CLINIC</t>
   </si>
@@ -128,13 +129,6 @@
     <t>AVC</t>
   </si>
   <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Forename [Kenmare] does not match Payroll member's (refno=0790811) forename [TOM] or its initial
-Surname [O'Ballymagauran] does not match Payroll member's (refno=0790811) surname  [GREENAN]  (forename TOM)</t>
-  </si>
-  <si>
     <t>1454</t>
   </si>
   <si>
@@ -144,13 +138,6 @@
     <t>O'Ballymagauran</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Member (Payroll=1694) status is NL so name is not validated
-Member status is inactive so paypoint is not returned</t>
-  </si>
-  <si>
     <t>1694</t>
   </si>
   <si>
@@ -160,10 +147,6 @@
     <t>McAnnamoe</t>
   </si>
   <si>
-    <t>Forename [Ballymore] does not match Payroll member's (refno=0904468) forename [GEAROID] or its initial
-Surname [Churchtown] does not match Payroll member's (refno=0904468) surname  [NORRIS]  (forename GEAROID)</t>
-  </si>
-  <si>
     <t>1969</t>
   </si>
   <si>
@@ -173,10 +156,6 @@
     <t>Churchtown</t>
   </si>
   <si>
-    <t>Forename [Tullaghan] does not match Payroll member's (refno=0938107) forename [GEAROID] or its initial
-Surname [Redhills] does not match Payroll member's (refno=0938107) surname  [NORRIS]  (forename GEAROID)</t>
-  </si>
-  <si>
     <t>2228</t>
   </si>
   <si>
@@ -195,118 +174,19 @@
     <t>2904.45</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1160256</t>
-  </si>
-  <si>
-    <t>244701</t>
-  </si>
-  <si>
-    <t>Direct Debit</t>
-  </si>
-  <si>
-    <t>29/04/2021</t>
-  </si>
-  <si>
-    <t>100,828.61</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>ILIM Apr 2021</t>
-  </si>
-  <si>
-    <t>1160252</t>
-  </si>
-  <si>
-    <t>9,957.35</t>
-  </si>
-  <si>
-    <t>1158226</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>09/04/2021</t>
-  </si>
-  <si>
-    <t>7,000.00</t>
-  </si>
-  <si>
-    <t>ILIM SPAV - A Billingham 0624761</t>
-  </si>
-  <si>
-    <t>Annually</t>
-  </si>
-  <si>
-    <t>1088112</t>
-  </si>
-  <si>
-    <t>244702</t>
-  </si>
-  <si>
-    <t>01/01/2020</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>19,024.32</t>
-  </si>
-  <si>
-    <t>2019 Charges</t>
-  </si>
-  <si>
-    <t>1033048</t>
-  </si>
-  <si>
-    <t>01/01/2019</t>
-  </si>
-  <si>
-    <t>13,504.40</t>
-  </si>
-  <si>
-    <t>yearly fees 2019</t>
-  </si>
-  <si>
-    <t>970204</t>
-  </si>
-  <si>
-    <t>01/01/2018</t>
-  </si>
-  <si>
-    <t>10,930.40</t>
-  </si>
-  <si>
-    <t>invoiced fees 01/01/2018- 31/12/2018</t>
+    <t>1_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
   </si>
 </sst>
 </file>
@@ -318,7 +198,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -345,16 +225,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -365,20 +237,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -437,7 +314,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -450,17 +327,18 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,7 +956,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1086,11 +964,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="107" style="3"/>
+    <col min="1" max="1" width="16.25" style="3"/>
     <col min="2" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1109,22 +987,17 @@
       <c r="F1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E2" s="3">
         <v>0.0</v>
@@ -1132,22 +1005,17 @@
       <c r="F2" s="3">
         <v>0.0</v>
       </c>
-      <c r="G2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="E3" s="3">
         <v>953.7</v>
@@ -1156,18 +1024,16 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="6" t="s">
-        <v>46</v>
-      </c>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3">
         <v>1300.5</v>
@@ -1175,31 +1041,23 @@
       <c r="F4" s="3">
         <v>650.25</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="6" t="s">
-        <v>50</v>
-      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3">
         <v>0.0</v>
       </c>
       <c r="F5" s="3">
         <v>0.0</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1210,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1218,16 +1076,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="3"/>
-    <col min="2" max="2" width="14.125" style="3"/>
-    <col min="3" max="3" width="8.25" style="3"/>
-    <col min="4" max="4" width="15.75" style="3"/>
-    <col min="5" max="5" width="13.25" style="3"/>
-    <col min="6" max="6" width="12.625" style="3"/>
-    <col min="7" max="7" width="15.75" style="3"/>
-    <col min="8" max="8" width="10.5" style="3"/>
-    <col min="9" max="9" width="31.5" style="3"/>
-    <col min="10" max="16384" width="9.25" style="3"/>
+    <col min="1" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
@@ -1248,12 +1097,12 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
@@ -1263,210 +1112,49 @@
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>94</v>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_11/expected_aptrans_anon.602447PRSA_-_Exec_0720.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_11/expected_aptrans_anon.602447PRSA_-_Exec_0720.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="~Tab Sheet" sheetId="1" r:id="rId2"/>
     <sheet name="sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="#Tab Sheet" sheetId="3" r:id="rId4"/>
-    <sheet name="$Tab Sheet" sheetId="4" r:id="rId5"/>
+    <sheet name="$Tab Sheet" sheetId="3" r:id="rId4"/>
+    <sheet name="#Tab Sheet" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>HERMITAGE MEDICAL CLINIC</t>
   </si>
@@ -114,9 +114,6 @@
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>PAYROLL</t>
-  </si>
-  <si>
     <t>FORENAME</t>
   </si>
   <si>
@@ -129,7 +126,8 @@
     <t>AVC</t>
   </si>
   <si>
-    <t>1454</t>
+    <t>No Refno or PPS number or payroll number specified
+Member does not have open Paypoints</t>
   </si>
   <si>
     <t>Kenmare</t>
@@ -138,55 +136,166 @@
     <t>O'Ballymagauran</t>
   </si>
   <si>
-    <t>1694</t>
-  </si>
-  <si>
     <t>Goleen</t>
   </si>
   <si>
     <t>McAnnamoe</t>
   </si>
   <si>
-    <t>1969</t>
-  </si>
-  <si>
     <t>Ballymore</t>
   </si>
   <si>
     <t>Churchtown</t>
   </si>
   <si>
-    <t>2228</t>
-  </si>
-  <si>
     <t>Tullaghan</t>
   </si>
   <si>
     <t>Redhills</t>
   </si>
   <si>
+    <t>1_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>Mandatory columns not found</t>
+  </si>
+  <si>
+    <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
+  </si>
+  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
     <t>False</t>
   </si>
   <si>
-    <t>2904.45</t>
-  </si>
-  <si>
-    <t>1_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
+    <t>7995.25</t>
+  </si>
+  <si>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1183057</t>
+  </si>
+  <si>
+    <t>244701</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>04/08/2021</t>
+  </si>
+  <si>
+    <t>15/09/2021</t>
+  </si>
+  <si>
+    <t>23,125.44</t>
+  </si>
+  <si>
+    <t>ILIM R McDonald - TV from CWPS</t>
+  </si>
+  <si>
+    <t>1180332</t>
+  </si>
+  <si>
+    <t>Direct Debit</t>
+  </si>
+  <si>
+    <t>31/08/2021</t>
+  </si>
+  <si>
+    <t>103,621.47</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM Aug 2021</t>
+  </si>
+  <si>
+    <t>1180330</t>
+  </si>
+  <si>
+    <t>10,685.27</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>1088112</t>
+  </si>
+  <si>
+    <t>244702</t>
+  </si>
+  <si>
+    <t>01/01/2020</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>19,024.32</t>
+  </si>
+  <si>
+    <t>2019 Charges</t>
+  </si>
+  <si>
+    <t>1033048</t>
+  </si>
+  <si>
+    <t>01/01/2019</t>
+  </si>
+  <si>
+    <t>13,504.40</t>
+  </si>
+  <si>
+    <t>yearly fees 2019</t>
+  </si>
+  <si>
+    <t>970204</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>10,930.40</t>
+  </si>
+  <si>
+    <t>invoiced fees 01/01/2018- 31/12/2018</t>
   </si>
 </sst>
 </file>
@@ -198,7 +307,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -225,8 +334,23 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -314,7 +438,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -327,18 +451,19 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,7 +1081,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -964,11 +1089,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="3"/>
+    <col min="1" max="1" width="47.5" style="3"/>
     <col min="2" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -984,79 +1109,72 @@
       <c r="E1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="6"/>
       <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>38</v>
+      <c r="D2" s="3">
+        <v>1454.0</v>
       </c>
       <c r="E2" s="3">
         <v>0.0</v>
       </c>
-      <c r="F2" s="3">
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1694.0</v>
+      </c>
+      <c r="E3" s="3">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="3">
-        <v>953.7</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3">
+        <v>1969.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>650.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1300.5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>650.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>47</v>
+      <c r="D5" s="3">
+        <v>2228.0</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1068,7 +1186,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:B9"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1080,39 +1201,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="3">
-        <v>2254.2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>650.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15">
-      <c r="A4" s="3" t="s">
+      <c r="A2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15">
-      <c r="A5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15">
-      <c r="A9" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1123,38 +1230,263 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="17.75" style="3"/>
+    <col min="2" max="2" width="14.125" style="3"/>
+    <col min="3" max="3" width="8.25" style="3"/>
+    <col min="4" max="4" width="15.75" style="3"/>
+    <col min="5" max="5" width="13.25" style="3"/>
+    <col min="6" max="6" width="12.625" style="3"/>
+    <col min="7" max="7" width="15.75" style="3"/>
+    <col min="8" max="8" width="10.5" style="3"/>
+    <col min="9" max="9" width="31.5" style="3"/>
+    <col min="10" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="3">
+        <v>7345.0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>650.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15">
+      <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="8" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="3" t="s">
+      <c r="C12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D12" s="9" t="s">
         <v>55</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_11/expected_aptrans_anon.602447PRSA_-_Exec_0720.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_11/expected_aptrans_anon.602447PRSA_-_Exec_0720.xlsx
@@ -9,8 +9,7 @@
   <sheets>
     <sheet name="~Tab Sheet" sheetId="1" r:id="rId2"/>
     <sheet name="sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="$Tab Sheet" sheetId="3" r:id="rId4"/>
-    <sheet name="#Tab Sheet" sheetId="4" r:id="rId5"/>
+    <sheet name="#Tab Sheet" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913"/>
@@ -19,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
   <si>
     <t>HERMITAGE MEDICAL CLINIC</t>
   </si>
@@ -114,6 +113,9 @@
     <t>ISSUES FOUND</t>
   </si>
   <si>
+    <t>PAYROLL</t>
+  </si>
+  <si>
     <t>FORENAME</t>
   </si>
   <si>
@@ -126,8 +128,14 @@
     <t>AVC</t>
   </si>
   <si>
-    <t>No Refno or PPS number or payroll number specified
-Member does not have open Paypoints</t>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Forename [Kenmare] does not match Payroll member's (refno=0790811) forename [TOM] or its initial
+Surname [O'Ballymagauran] does not match Payroll member's (refno=0790811) surname  [GREENAN]  (forename TOM)</t>
+  </si>
+  <si>
+    <t>1454</t>
   </si>
   <si>
     <t>Kenmare</t>
@@ -136,55 +144,61 @@
     <t>O'Ballymagauran</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Member (Payroll=1694) status is NL so name is not validated
+Member status is inactive so paypoint is not returned</t>
+  </si>
+  <si>
+    <t>1694</t>
+  </si>
+  <si>
     <t>Goleen</t>
   </si>
   <si>
     <t>McAnnamoe</t>
   </si>
   <si>
+    <t>Member (Payroll=1969) status is PP so name is not validated
+Member status is inactive so paypoint is not returned</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
     <t>Ballymore</t>
   </si>
   <si>
     <t>Churchtown</t>
   </si>
   <si>
+    <t>Forename [Tullaghan] does not match Payroll member's (refno=0938107) forename [GEAROID] or its initial
+Surname [Redhills] does not match Payroll member's (refno=0938107) surname  [NORRIS]  (forename GEAROID)</t>
+  </si>
+  <si>
+    <t>2228</t>
+  </si>
+  <si>
     <t>Tullaghan</t>
   </si>
   <si>
     <t>Redhills</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>Mandatory columns not found</t>
-  </si>
-  <si>
-    <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
-  </si>
-  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
     <t>False</t>
   </si>
   <si>
-    <t>7995.25</t>
+    <t>2904.45</t>
   </si>
   <si>
     <t>Payment Frequency</t>
   </si>
   <si>
     <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
   </si>
   <si>
     <t>Collection Method</t>
@@ -343,13 +357,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -361,25 +368,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -389,14 +391,6 @@
       <top/>
       <bottom/>
       <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -411,6 +405,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -438,7 +440,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -451,18 +453,19 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -1081,7 +1084,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1089,11 +1092,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="47.5" style="3"/>
+    <col min="1" max="1" width="107" style="3"/>
     <col min="2" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1109,73 +1112,97 @@
       <c r="E1" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30">
+      <c r="F1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1454.0</v>
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E2" s="3">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="6" t="s">
-        <v>35</v>
+      <c r="F2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1694.0</v>
+        <v>44</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E3" s="3">
+        <v>953.7</v>
+      </c>
+      <c r="F3" s="3">
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="6" t="s">
-        <v>35</v>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1969.0</v>
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E4" s="3">
+        <v>1300.5</v>
+      </c>
+      <c r="F4" s="3">
         <v>650.25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="6" t="s">
-        <v>35</v>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2228.0</v>
+        <v>52</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="E5" s="3">
         <v>0.0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1185,50 +1212,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9.25" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -1252,15 +1235,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="3">
-        <v>7345.0</v>
+        <v>2254.2</v>
       </c>
       <c r="B2" s="3">
         <v>650.25</v>
@@ -1268,12 +1251,12 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
@@ -1283,210 +1266,210 @@
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="C12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>60</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_11/expected_aptrans_anon.602447PRSA_-_Exec_0720.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_11/expected_aptrans_anon.602447PRSA_-_Exec_0720.xlsx
@@ -10,6 +10,7 @@
     <sheet name="~Tab Sheet" sheetId="1" r:id="rId2"/>
     <sheet name="sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="#Tab Sheet" sheetId="3" r:id="rId4"/>
+    <sheet name="$Tab Sheet" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>HERMITAGE MEDICAL CLINIC</t>
   </si>
@@ -128,13 +129,6 @@
     <t>AVC</t>
   </si>
   <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Forename [Kenmare] does not match Payroll member's (refno=0790811) forename [TOM] or its initial
-Surname [O'Ballymagauran] does not match Payroll member's (refno=0790811) surname  [GREENAN]  (forename TOM)</t>
-  </si>
-  <si>
     <t>1454</t>
   </si>
   <si>
@@ -144,13 +138,6 @@
     <t>O'Ballymagauran</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Member (Payroll=1694) status is NL so name is not validated
-Member status is inactive so paypoint is not returned</t>
-  </si>
-  <si>
     <t>1694</t>
   </si>
   <si>
@@ -160,10 +147,6 @@
     <t>McAnnamoe</t>
   </si>
   <si>
-    <t>Member (Payroll=1969) status is PP so name is not validated
-Member status is inactive so paypoint is not returned</t>
-  </si>
-  <si>
     <t>1969</t>
   </si>
   <si>
@@ -173,10 +156,6 @@
     <t>Churchtown</t>
   </si>
   <si>
-    <t>Forename [Tullaghan] does not match Payroll member's (refno=0938107) forename [GEAROID] or its initial
-Surname [Redhills] does not match Payroll member's (refno=0938107) surname  [NORRIS]  (forename GEAROID)</t>
-  </si>
-  <si>
     <t>2228</t>
   </si>
   <si>
@@ -195,121 +174,19 @@
     <t>2904.45</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1183057</t>
-  </si>
-  <si>
-    <t>244701</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>04/08/2021</t>
-  </si>
-  <si>
-    <t>15/09/2021</t>
-  </si>
-  <si>
-    <t>23,125.44</t>
-  </si>
-  <si>
-    <t>ILIM R McDonald - TV from CWPS</t>
-  </si>
-  <si>
-    <t>1180332</t>
-  </si>
-  <si>
-    <t>Direct Debit</t>
-  </si>
-  <si>
-    <t>31/08/2021</t>
-  </si>
-  <si>
-    <t>103,621.47</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>ILIM Aug 2021</t>
-  </si>
-  <si>
-    <t>1180330</t>
-  </si>
-  <si>
-    <t>10,685.27</t>
-  </si>
-  <si>
-    <t>Annually</t>
-  </si>
-  <si>
-    <t>1088112</t>
-  </si>
-  <si>
-    <t>244702</t>
-  </si>
-  <si>
-    <t>01/01/2020</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>19,024.32</t>
-  </si>
-  <si>
-    <t>2019 Charges</t>
-  </si>
-  <si>
-    <t>1033048</t>
-  </si>
-  <si>
-    <t>01/01/2019</t>
-  </si>
-  <si>
-    <t>13,504.40</t>
-  </si>
-  <si>
-    <t>yearly fees 2019</t>
-  </si>
-  <si>
-    <t>970204</t>
-  </si>
-  <si>
-    <t>01/01/2018</t>
-  </si>
-  <si>
-    <t>10,930.40</t>
-  </si>
-  <si>
-    <t>invoiced fees 01/01/2018- 31/12/2018</t>
+    <t>1_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
   </si>
 </sst>
 </file>
@@ -321,7 +198,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -348,16 +225,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -369,6 +238,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -376,12 +246,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -440,7 +322,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -453,20 +335,21 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1084,7 +967,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1092,11 +975,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="107" style="3"/>
+    <col min="1" max="1" width="16.25" style="3"/>
     <col min="2" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1115,22 +998,17 @@
       <c r="F1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E2" s="3">
         <v>0.0</v>
@@ -1138,22 +1016,17 @@
       <c r="F2" s="3">
         <v>0.0</v>
       </c>
-      <c r="G2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="E3" s="3">
         <v>953.7</v>
@@ -1162,18 +1035,16 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="7" t="s">
-        <v>46</v>
-      </c>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3">
         <v>1300.5</v>
@@ -1182,27 +1053,22 @@
         <v>650.25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="7" t="s">
-        <v>50</v>
-      </c>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3">
         <v>0.0</v>
       </c>
       <c r="F5" s="3">
         <v>0.0</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1213,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1221,16 +1087,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="3"/>
-    <col min="2" max="2" width="14.125" style="3"/>
-    <col min="3" max="3" width="8.25" style="3"/>
-    <col min="4" max="4" width="15.75" style="3"/>
-    <col min="5" max="5" width="13.25" style="3"/>
-    <col min="6" max="6" width="12.625" style="3"/>
-    <col min="7" max="7" width="15.75" style="3"/>
-    <col min="8" max="8" width="10.5" style="3"/>
-    <col min="9" max="9" width="31.5" style="3"/>
-    <col min="10" max="16384" width="9.25" style="3"/>
+    <col min="1" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
@@ -1251,12 +1108,12 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
@@ -1266,210 +1123,49 @@
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>95</v>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
